--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2122.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2122.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.55332765634342</v>
+        <v>0.8568683862686157</v>
       </c>
       <c r="B1">
-        <v>1.851534998452559</v>
+        <v>2.993264198303223</v>
       </c>
       <c r="C1">
-        <v>1.319856848983245</v>
+        <v>3.076652765274048</v>
       </c>
       <c r="D1">
-        <v>1.199279873238438</v>
+        <v>1.744043707847595</v>
       </c>
       <c r="E1">
-        <v>1.225311675476468</v>
+        <v>1.339290857315063</v>
       </c>
     </row>
   </sheetData>
